--- a/xlsx/品牌管理_intext.xlsx
+++ b/xlsx/品牌管理_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="222">
   <si>
     <t>品牌管理</t>
   </si>
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>管理學</t>
+    <t>管理学</t>
   </si>
   <si>
     <t>政策_政策_管理_品牌管理</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%81%E7%89%8C%E6%AC%8A%E7%9B%8A</t>
   </si>
   <si>
-    <t>品牌權益</t>
+    <t>品牌权益</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%81%E7%89%8C%E5%BB%B6%E4%BC%B8</t>
@@ -59,9 +59,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E5%AD%A6</t>
   </si>
   <si>
-    <t>管理学</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Outline_of_business_management</t>
   </si>
   <si>
@@ -113,7 +110,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E8%A1%8C%E6%94%BF%E5%AD%B8</t>
   </si>
   <si>
-    <t>公共行政學</t>
+    <t>公共行政学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%98%E7%95%A5%E7%AE%A1%E7%90%86</t>
@@ -131,7 +128,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%87%89%E8%AE%8A%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>應變管理</t>
+    <t>应变管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Communications_management</t>
@@ -155,7 +152,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BE%E6%95%88%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>績效管理</t>
+    <t>绩效管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%8E%E9%99%A9%E7%AE%A1%E7%90%86</t>
@@ -203,7 +200,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%87%9F%E5%BB%BA%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>營建管理</t>
+    <t>营建管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Line_management</t>
@@ -215,7 +212,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E9%8A%B7%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>行銷管理</t>
+    <t>行销管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Operations_management</t>
@@ -239,7 +236,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%81%E8%B3%AA%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>品質管理</t>
+    <t>品质管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sales_management</t>
@@ -317,13 +314,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B1%E6%A9%9F%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>危機管理</t>
+    <t>危机管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A3%93%E5%8A%9B%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>壓力管理</t>
+    <t>压力管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Resource_management</t>
@@ -335,7 +332,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E8%B3%87%E6%BA%90%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>環境資源管理</t>
+    <t>环境资源管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8A%9B%E8%B5%84%E6%BA%90%E7%AE%A1%E7%90%86</t>
@@ -353,7 +350,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E8%A8%8A%E7%A7%91%E6%8A%80%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>資訊科技管理</t>
+    <t>资讯科技管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AF%86%E7%AE%A1%E7%90%86</t>
@@ -401,7 +398,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E5%AE%B6%E6%B4%BE%E9%81%A3</t>
   </si>
   <si>
-    <t>專家派遣</t>
+    <t>专家派遣</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B2%E9%83%A8</t>
@@ -413,7 +410,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E9%9A%8E%E7%AE%A1%E7%90%86%E4%BA%BA%E5%93%A1</t>
   </si>
   <si>
-    <t>高階管理人員</t>
+    <t>高阶管理人员</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Adhocracy</t>
@@ -449,25 +446,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%AE%E6%A8%99%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>目標管理</t>
+    <t>目标管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E9%A2%A8%E6%A0%BC</t>
   </si>
   <si>
-    <t>管理風格</t>
+    <t>管理风格</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8F%E8%A7%80%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>宏觀管理</t>
+    <t>宏观管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%A7%80%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>微觀管理</t>
+    <t>微观管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%A6%E7%AE%A1%E7%90%86</t>
@@ -497,7 +494,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BA%E6%96%B7</t>
   </si>
   <si>
-    <t>決斷</t>
+    <t>决断</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B3%E7%AD%96</t>
@@ -515,7 +512,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A0%98%E5%B0%8E%E5%8A%9B</t>
   </si>
   <si>
-    <t>領導力</t>
+    <t>领导力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%BC%E5%BE%97%C2%B7%E5%BE%B7%E9%B2%81%E5%85%8B</t>
@@ -545,13 +542,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%95%86%E7%AE%A1%E7%90%86%E5%AD%B8%E5%AD%B8%E5%A3%AB</t>
   </si>
   <si>
-    <t>工商管理學學士</t>
+    <t>工商管理学学士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%95%86%E7%AE%A1%E7%90%86%E7%A2%A9%E5%A3%AB</t>
   </si>
   <si>
-    <t>工商管理碩士</t>
+    <t>工商管理硕士</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/PhD_in_management</t>
@@ -611,13 +608,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>管理主義</t>
+    <t>管理主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%84%E7%B9%94%E7%99%BC%E5%B1%95%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>組織發展理論</t>
+    <t>组织发展理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%88%E4%BD%9C</t>
@@ -1228,7 +1225,7 @@
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G7" t="n">
         <v>3</v>
@@ -1254,10 +1251,10 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
         <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -1283,10 +1280,10 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
         <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -1312,10 +1309,10 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
         <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -1341,10 +1338,10 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
         <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -1370,10 +1367,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -1399,10 +1396,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -1428,10 +1425,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -1457,10 +1454,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -1486,10 +1483,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -1515,10 +1512,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1544,10 +1541,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1573,10 +1570,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1602,10 +1599,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1631,10 +1628,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1660,10 +1657,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1689,10 +1686,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1718,10 +1715,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1747,10 +1744,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1776,10 +1773,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1805,10 +1802,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1834,10 +1831,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1863,10 +1860,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1892,10 +1889,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1921,10 +1918,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1950,10 +1947,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1979,10 +1976,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -2008,10 +2005,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2037,10 +2034,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2066,10 +2063,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2095,10 +2092,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2124,10 +2121,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2153,10 +2150,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2182,10 +2179,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2211,10 +2208,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2240,10 +2237,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2269,10 +2266,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2298,10 +2295,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>3</v>
@@ -2327,10 +2324,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2356,10 +2353,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2385,10 +2382,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2414,10 +2411,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2443,10 +2440,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2472,10 +2469,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2501,10 +2498,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2530,10 +2527,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2559,10 +2556,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2588,10 +2585,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2617,10 +2614,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>2</v>
@@ -2646,10 +2643,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2675,10 +2672,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2704,10 +2701,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2733,10 +2730,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2762,10 +2759,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2791,10 +2788,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2820,10 +2817,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2849,10 +2846,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2878,10 +2875,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2907,10 +2904,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2936,10 +2933,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>132</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -2965,10 +2962,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
         <v>133</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -2994,10 +2991,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
         <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3023,10 +3020,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
         <v>137</v>
-      </c>
-      <c r="F69" t="s">
-        <v>138</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3052,10 +3049,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" t="s">
         <v>139</v>
-      </c>
-      <c r="F70" t="s">
-        <v>140</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3081,10 +3078,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" t="s">
         <v>141</v>
-      </c>
-      <c r="F71" t="s">
-        <v>142</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3110,10 +3107,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" t="s">
         <v>143</v>
-      </c>
-      <c r="F72" t="s">
-        <v>144</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3139,10 +3136,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" t="s">
         <v>145</v>
-      </c>
-      <c r="F73" t="s">
-        <v>146</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3168,10 +3165,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" t="s">
         <v>147</v>
-      </c>
-      <c r="F74" t="s">
-        <v>148</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3197,10 +3194,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>148</v>
+      </c>
+      <c r="F75" t="s">
         <v>149</v>
-      </c>
-      <c r="F75" t="s">
-        <v>150</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3226,10 +3223,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>150</v>
+      </c>
+      <c r="F76" t="s">
         <v>151</v>
-      </c>
-      <c r="F76" t="s">
-        <v>152</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3255,10 +3252,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>152</v>
+      </c>
+      <c r="F77" t="s">
         <v>153</v>
-      </c>
-      <c r="F77" t="s">
-        <v>154</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3284,10 +3281,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>154</v>
+      </c>
+      <c r="F78" t="s">
         <v>155</v>
-      </c>
-      <c r="F78" t="s">
-        <v>156</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3313,10 +3310,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>156</v>
+      </c>
+      <c r="F79" t="s">
         <v>157</v>
-      </c>
-      <c r="F79" t="s">
-        <v>158</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3342,10 +3339,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>158</v>
+      </c>
+      <c r="F80" t="s">
         <v>159</v>
-      </c>
-      <c r="F80" t="s">
-        <v>160</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3371,10 +3368,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>160</v>
+      </c>
+      <c r="F81" t="s">
         <v>161</v>
-      </c>
-      <c r="F81" t="s">
-        <v>162</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3400,10 +3397,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>162</v>
+      </c>
+      <c r="F82" t="s">
         <v>163</v>
-      </c>
-      <c r="F82" t="s">
-        <v>164</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3429,10 +3426,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>164</v>
+      </c>
+      <c r="F83" t="s">
         <v>165</v>
-      </c>
-      <c r="F83" t="s">
-        <v>166</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3458,10 +3455,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>166</v>
+      </c>
+      <c r="F84" t="s">
         <v>167</v>
-      </c>
-      <c r="F84" t="s">
-        <v>168</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3487,10 +3484,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>168</v>
+      </c>
+      <c r="F85" t="s">
         <v>169</v>
-      </c>
-      <c r="F85" t="s">
-        <v>170</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3516,10 +3513,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>170</v>
+      </c>
+      <c r="F86" t="s">
         <v>171</v>
-      </c>
-      <c r="F86" t="s">
-        <v>172</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3545,10 +3542,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>172</v>
+      </c>
+      <c r="F87" t="s">
         <v>173</v>
-      </c>
-      <c r="F87" t="s">
-        <v>174</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3574,10 +3571,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>174</v>
+      </c>
+      <c r="F88" t="s">
         <v>175</v>
-      </c>
-      <c r="F88" t="s">
-        <v>176</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3603,10 +3600,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>176</v>
+      </c>
+      <c r="F89" t="s">
         <v>177</v>
-      </c>
-      <c r="F89" t="s">
-        <v>178</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3632,10 +3629,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>178</v>
+      </c>
+      <c r="F90" t="s">
         <v>179</v>
-      </c>
-      <c r="F90" t="s">
-        <v>180</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3661,10 +3658,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>180</v>
+      </c>
+      <c r="F91" t="s">
         <v>181</v>
-      </c>
-      <c r="F91" t="s">
-        <v>182</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3690,10 +3687,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>182</v>
+      </c>
+      <c r="F92" t="s">
         <v>183</v>
-      </c>
-      <c r="F92" t="s">
-        <v>184</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3719,10 +3716,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>184</v>
+      </c>
+      <c r="F93" t="s">
         <v>185</v>
-      </c>
-      <c r="F93" t="s">
-        <v>186</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3748,10 +3745,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>186</v>
+      </c>
+      <c r="F94" t="s">
         <v>187</v>
-      </c>
-      <c r="F94" t="s">
-        <v>188</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3777,10 +3774,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>188</v>
+      </c>
+      <c r="F95" t="s">
         <v>189</v>
-      </c>
-      <c r="F95" t="s">
-        <v>190</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3806,10 +3803,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>22</v>
+      </c>
+      <c r="F96" t="s">
         <v>23</v>
-      </c>
-      <c r="F96" t="s">
-        <v>24</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -3835,10 +3832,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>190</v>
+      </c>
+      <c r="F97" t="s">
         <v>191</v>
-      </c>
-      <c r="F97" t="s">
-        <v>192</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -3864,10 +3861,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>192</v>
+      </c>
+      <c r="F98" t="s">
         <v>193</v>
-      </c>
-      <c r="F98" t="s">
-        <v>194</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -3893,10 +3890,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>194</v>
+      </c>
+      <c r="F99" t="s">
         <v>195</v>
-      </c>
-      <c r="F99" t="s">
-        <v>196</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -3922,10 +3919,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>196</v>
+      </c>
+      <c r="F100" t="s">
         <v>197</v>
-      </c>
-      <c r="F100" t="s">
-        <v>198</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -3951,10 +3948,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>198</v>
+      </c>
+      <c r="F101" t="s">
         <v>199</v>
-      </c>
-      <c r="F101" t="s">
-        <v>200</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -3980,10 +3977,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>200</v>
+      </c>
+      <c r="F102" t="s">
         <v>201</v>
-      </c>
-      <c r="F102" t="s">
-        <v>202</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4009,10 +4006,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>202</v>
+      </c>
+      <c r="F103" t="s">
         <v>203</v>
-      </c>
-      <c r="F103" t="s">
-        <v>204</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4038,10 +4035,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>204</v>
+      </c>
+      <c r="F104" t="s">
         <v>205</v>
-      </c>
-      <c r="F104" t="s">
-        <v>206</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4067,10 +4064,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>206</v>
+      </c>
+      <c r="F105" t="s">
         <v>207</v>
-      </c>
-      <c r="F105" t="s">
-        <v>208</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4096,10 +4093,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>208</v>
+      </c>
+      <c r="F106" t="s">
         <v>209</v>
-      </c>
-      <c r="F106" t="s">
-        <v>210</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4125,10 +4122,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>210</v>
+      </c>
+      <c r="F107" t="s">
         <v>211</v>
-      </c>
-      <c r="F107" t="s">
-        <v>212</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4154,10 +4151,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>212</v>
+      </c>
+      <c r="F108" t="s">
         <v>213</v>
-      </c>
-      <c r="F108" t="s">
-        <v>214</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4183,10 +4180,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>214</v>
+      </c>
+      <c r="F109" t="s">
         <v>215</v>
-      </c>
-      <c r="F109" t="s">
-        <v>216</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4212,10 +4209,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>216</v>
+      </c>
+      <c r="F110" t="s">
         <v>217</v>
-      </c>
-      <c r="F110" t="s">
-        <v>218</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4241,10 +4238,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>218</v>
+      </c>
+      <c r="F111" t="s">
         <v>219</v>
-      </c>
-      <c r="F111" t="s">
-        <v>220</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4270,10 +4267,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>220</v>
+      </c>
+      <c r="F112" t="s">
         <v>221</v>
-      </c>
-      <c r="F112" t="s">
-        <v>222</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
